--- a/public/tarif.xlsx
+++ b/public/tarif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marwa\Documents\ARSITEKTUR\PROJEK\KLINIK DR LUTHFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lmc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BB3A18-6F6D-4709-B9A7-A9E0E994F954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F50FA-D478-4A9E-8BB3-B390AE22DD6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12105" xr2:uid="{C2F22012-2C0D-47E3-9D5E-6DE094051638}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
   <si>
     <t>Dokter Umum</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Dokter Spesialis</t>
   </si>
   <si>
-    <t>Tindakan</t>
-  </si>
-  <si>
     <t>Injeksi Khusus (IA)</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Sewa Ruangan</t>
   </si>
   <si>
-    <t>Sarana</t>
-  </si>
-  <si>
     <t>USG - UPPER</t>
   </si>
   <si>
@@ -174,7 +168,19 @@
     <t>USG AXILLA Kanan - Kiri</t>
   </si>
   <si>
-    <t>USG</t>
+    <t>Akomodasi</t>
+  </si>
+  <si>
+    <t>Radiologi</t>
+  </si>
+  <si>
+    <t>Keperawatan</t>
+  </si>
+  <si>
+    <t>Prosedur Non Bedah</t>
+  </si>
+  <si>
+    <t>Obat Kemoterapi</t>
   </si>
 </sst>
 </file>
@@ -529,14 +535,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F1E812-27B6-465A-B6AC-E5F12E5A1101}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1">
         <v>10000</v>
@@ -559,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>15000</v>
@@ -573,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>25000</v>
@@ -587,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>50000</v>
@@ -682,10 +688,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>500000</v>
@@ -696,10 +702,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>200000</v>
@@ -710,10 +716,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>1500000</v>
@@ -724,10 +730,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2500000</v>
@@ -738,10 +744,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>250000</v>
@@ -752,10 +758,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>100000</v>
@@ -766,10 +772,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>50000</v>
@@ -780,10 +786,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>30000</v>
@@ -794,10 +800,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>65000</v>
@@ -808,10 +814,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>100000</v>
@@ -822,10 +828,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>135000</v>
@@ -836,10 +842,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>200000</v>
@@ -850,10 +856,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>300000</v>
@@ -864,10 +870,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>50000</v>
@@ -878,10 +884,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>50000</v>
@@ -892,10 +898,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>50000</v>
@@ -906,10 +912,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>150000</v>
@@ -920,10 +926,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>200000</v>
@@ -934,10 +940,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>200000</v>
@@ -948,10 +954,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>15000</v>
@@ -962,10 +968,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>35000</v>
@@ -976,10 +982,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>20000</v>
@@ -990,10 +996,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>15000</v>
@@ -1004,10 +1010,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>75000</v>
@@ -1018,10 +1024,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>60000</v>
@@ -1032,10 +1038,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>35000</v>
@@ -1046,10 +1052,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>20000</v>
@@ -1060,10 +1066,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>20000</v>
@@ -1074,10 +1080,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>15000</v>
@@ -1088,10 +1094,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>300000</v>
@@ -1102,10 +1108,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>450000</v>
@@ -1116,10 +1122,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>450000</v>
@@ -1130,10 +1136,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>600000</v>
@@ -1144,10 +1150,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>450000</v>
@@ -1158,10 +1164,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>450000</v>
@@ -1172,10 +1178,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>450000</v>
@@ -1186,10 +1192,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
       </c>
       <c r="C47">
         <v>450000</v>
@@ -1200,10 +1206,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>375300</v>
@@ -1214,10 +1220,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>375300</v>
@@ -1228,10 +1234,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>375300</v>
@@ -1242,10 +1248,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>375300</v>
@@ -1256,10 +1262,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52">
         <v>375300</v>
@@ -1270,10 +1276,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53">
         <v>375300</v>
@@ -1284,10 +1290,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
         <v>48</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
       </c>
       <c r="C54">
         <v>375300</v>
